--- a/data/trans_dic/P25C_R2_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P25C_R2_2023-Dificultad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.05352731678682227</v>
+        <v>0.05352731678682225</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.03937199744428952</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.04831735460427983</v>
+        <v>0.04831735460427982</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02028638642083976</v>
+        <v>0.0215453939999565</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01183328983907107</v>
+        <v>0.01151395452557121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02313571458402108</v>
+        <v>0.02093590662953737</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1135972536142134</v>
+        <v>0.1163776966713152</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1098180642276297</v>
+        <v>0.1085887860876784</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08580293031975236</v>
+        <v>0.08832705800071418</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.03088184956089904</v>
+        <v>0.03088184956089905</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.05725725603267508</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01421604477422676</v>
+        <v>0.01372424818372528</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0266152934992468</v>
+        <v>0.02663014760922329</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02262672834630896</v>
+        <v>0.02286493808804444</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05715216850794166</v>
+        <v>0.05876255786640035</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1066947939314134</v>
+        <v>0.1105486628740228</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0615058441948779</v>
+        <v>0.06365904876974494</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.00559684650071489</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04409194896104293</v>
+        <v>0.04409194896104292</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.01928092501009732</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01843951319752853</v>
+        <v>0.01753979008334122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009035419415571162</v>
+        <v>0.008078763525506735</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01926603287361899</v>
+        <v>0.02005702865267921</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09370978124302677</v>
+        <v>0.09938049186556332</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04008293636952565</v>
+        <v>0.03627552999820539</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.003256300296762258</v>
+        <v>0.00332087641889841</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01015775544328802</v>
+        <v>0.01011183668696427</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008014073945567721</v>
+        <v>0.008077126868671233</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03753932588026888</v>
+        <v>0.03650883437765969</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05923202801787791</v>
+        <v>0.05901594693372376</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03451831484399097</v>
+        <v>0.0345323283764041</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.02177331208345309</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04021179228622816</v>
+        <v>0.04021179228622815</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02832869558928292</v>
+        <v>0.02832869558928293</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01411757553975977</v>
+        <v>0.01347095998940473</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02579999287376994</v>
+        <v>0.02514092779758356</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02064068453884723</v>
+        <v>0.02059582247437135</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03550375941440487</v>
+        <v>0.03439155540038953</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06173343504944261</v>
+        <v>0.05911521247324692</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03841083522458651</v>
+        <v>0.03841119017709494</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1779</v>
+        <v>1889</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3210</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9962</v>
+        <v>10205</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5609</v>
+        <v>5546</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11906</v>
+        <v>12257</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2762</v>
+        <v>2667</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6382</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11106</v>
+        <v>11419</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9363</v>
+        <v>9701</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17349</v>
+        <v>17957</v>
       </c>
     </row>
     <row r="12">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1692</v>
+        <v>1609</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2332</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3205</v>
+        <v>3337</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8598</v>
+        <v>9118</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10346</v>
+        <v>9363</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2704</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7759</v>
+        <v>7546</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7746</v>
+        <v>7718</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11648</v>
+        <v>11653</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9248</v>
+        <v>8824</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9323</v>
+        <v>9085</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20979</v>
+        <v>20934</v>
       </c>
     </row>
     <row r="23">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23256</v>
+        <v>22528</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22308</v>
+        <v>21362</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>39041</v>
